--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="285">
   <si>
     <t>No. Recibo sin PPC</t>
   </si>
@@ -867,6 +867,18 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Validación</t>
+  </si>
+  <si>
+    <t>Existe en Satelite</t>
+  </si>
+  <si>
+    <t>Existe en Salesforce</t>
+  </si>
+  <si>
+    <t>No Existe en Salesforce</t>
   </si>
 </sst>
 </file>
@@ -909,10 +921,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,21 +1206,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:KFD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="9" max="9" width="23.54296875" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
+    <col min="7593" max="7596" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,27 +1230,29 @@
         <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1252,13 +1269,28 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA1" s="1"/>
+      <c r="KFA1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="KFB1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="KFC1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="KFD1" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1282,8 +1314,15 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA2" s="1"/>
+      <c r="KFC2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD2" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1291,28 +1330,30 @@
         <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1328,8 +1369,15 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA3" s="1"/>
+      <c r="KFC3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD3" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,28 +1385,30 @@
         <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1374,8 +1424,15 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA4" s="1"/>
+      <c r="KFC4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD4" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1383,28 +1440,30 @@
         <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1420,8 +1479,15 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA5" s="1"/>
+      <c r="KFC5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD5" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1429,28 +1495,30 @@
         <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1466,8 +1534,15 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA6" s="1"/>
+      <c r="KFC6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD6" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1475,28 +1550,30 @@
         <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1512,8 +1589,15 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA7" s="1"/>
+      <c r="KFC7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD7" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1521,28 +1605,30 @@
         <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1558,8 +1644,15 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA8" s="1"/>
+      <c r="KFC8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD8" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1567,28 +1660,30 @@
         <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1604,8 +1699,15 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA9" s="1"/>
+      <c r="KFC9" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD9" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1613,28 +1715,30 @@
         <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
         <v>15000</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1650,8 +1754,15 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA10" s="1"/>
+      <c r="KFC10" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD10" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1659,28 +1770,30 @@
         <v>215</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
         <v>15000</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1696,8 +1809,15 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA11" s="1"/>
+      <c r="KFC11" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD11" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1705,28 +1825,30 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
         <v>15000</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1742,8 +1864,15 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA12" s="1"/>
+      <c r="KFC12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD12" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1751,28 +1880,30 @@
         <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1788,8 +1919,15 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA13" s="1"/>
+      <c r="KFC13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD13" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1797,28 +1935,30 @@
         <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1834,8 +1974,15 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA14" s="1"/>
+      <c r="KFC14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD14" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1843,28 +1990,30 @@
         <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1880,8 +2029,15 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA15" s="1"/>
+      <c r="KFC15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD15" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1889,28 +2045,30 @@
         <v>220</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1926,8 +2084,15 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA16" s="1"/>
+      <c r="KFC16" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD16" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1935,28 +2100,30 @@
         <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1972,8 +2139,15 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA17" s="1"/>
+      <c r="KFC17" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD17" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1981,28 +2155,30 @@
         <v>222</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2018,8 +2194,15 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA18" s="1"/>
+      <c r="KFC18" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD18" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2027,28 +2210,30 @@
         <v>223</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2064,8 +2249,15 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA19" s="1"/>
+      <c r="KFC19" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD19" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2073,28 +2265,30 @@
         <v>224</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1">
         <v>15000</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2110,8 +2304,15 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA20" s="1"/>
+      <c r="KFC20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD20" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2119,28 +2320,30 @@
         <v>225</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1">
         <v>15000</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2156,8 +2359,15 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA21" s="1"/>
+      <c r="KFC21" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD21" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2165,28 +2375,30 @@
         <v>226</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1">
         <v>15000</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2202,8 +2414,15 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA22" s="1"/>
+      <c r="KFC22" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD22" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -2211,28 +2430,30 @@
         <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2248,8 +2469,15 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA23" s="1"/>
+      <c r="KFC23" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD23" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2257,28 +2485,30 @@
         <v>228</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2294,8 +2524,15 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA24" s="1"/>
+      <c r="KFC24" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD24" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -2303,28 +2540,30 @@
         <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2340,8 +2579,15 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA25" s="1"/>
+      <c r="KFC25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD25" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2349,28 +2595,30 @@
         <v>230</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2386,8 +2634,15 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA26" s="1"/>
+      <c r="KFC26" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD26" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -2395,28 +2650,30 @@
         <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2432,8 +2689,15 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA27" s="1"/>
+      <c r="KFC27" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD27" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -2441,28 +2705,30 @@
         <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2478,8 +2744,15 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA28" s="1"/>
+      <c r="KFC28" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD28" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2487,28 +2760,30 @@
         <v>233</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="1">
         <v>15000</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2524,8 +2799,15 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA29" s="1"/>
+      <c r="KFC29" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD29" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -2533,28 +2815,30 @@
         <v>234</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2570,8 +2854,15 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA30" s="1"/>
+      <c r="KFC30" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD30" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -2579,28 +2870,30 @@
         <v>235</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2616,8 +2909,15 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA31" s="1"/>
+      <c r="KFC31" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD31" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2625,28 +2925,30 @@
         <v>236</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="2"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2662,8 +2964,15 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA32" s="1"/>
+      <c r="KFC32" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD32" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -2671,28 +2980,30 @@
         <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2708,8 +3019,15 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA33" s="1"/>
+      <c r="KFC33" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD33" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -2717,28 +3035,30 @@
         <v>238</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="2"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2754,8 +3074,15 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA34" s="1"/>
+      <c r="KFC34" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD34" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -2763,28 +3090,30 @@
         <v>239</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="2"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2800,8 +3129,15 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA35" s="1"/>
+      <c r="KFC35" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD35" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -2809,28 +3145,30 @@
         <v>240</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2846,8 +3184,15 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA36" s="1"/>
+      <c r="KFC36" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD36" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
@@ -2855,28 +3200,30 @@
         <v>241</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="2"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2892,8 +3239,15 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA37" s="1"/>
+      <c r="KFC37" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD37" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -2901,28 +3255,30 @@
         <v>242</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2938,8 +3294,15 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA38" s="1"/>
+      <c r="KFC38" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD38" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -2947,28 +3310,30 @@
         <v>243</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1">
+        <v>12</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1">
         <v>15000</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2984,8 +3349,15 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA39" s="1"/>
+      <c r="KFC39" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD39" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -2993,28 +3365,30 @@
         <v>244</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="1">
         <v>15000</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3030,8 +3404,15 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA40" s="1"/>
+      <c r="KFC40" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD40" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -3039,28 +3420,30 @@
         <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="1">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="1">
         <v>15000</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="2"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3076,8 +3459,15 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA41" s="1"/>
+      <c r="KFC41" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD41" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -3085,28 +3475,30 @@
         <v>246</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="2"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3122,8 +3514,15 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA42" s="1"/>
+      <c r="KFC42" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD42" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3131,28 +3530,30 @@
         <v>247</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3168,8 +3569,15 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA43" s="1"/>
+      <c r="KFC43" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD43" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
@@ -3177,28 +3585,30 @@
         <v>248</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="2"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3214,8 +3624,15 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA44" s="1"/>
+      <c r="KFC44" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD44" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>125</v>
       </c>
@@ -3223,28 +3640,30 @@
         <v>249</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="2"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3260,8 +3679,15 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA45" s="1"/>
+      <c r="KFC45" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD45" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
@@ -3269,28 +3695,30 @@
         <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="2"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3306,8 +3734,15 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA46" s="1"/>
+      <c r="KFC46" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD46" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>130</v>
       </c>
@@ -3315,28 +3750,30 @@
         <v>251</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="2"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3352,8 +3789,15 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA47" s="1"/>
+      <c r="KFC47" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD47" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
@@ -3361,28 +3805,30 @@
         <v>252</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="2"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3398,8 +3844,15 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA48" s="1"/>
+      <c r="KFC48" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD48" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>135</v>
       </c>
@@ -3407,28 +3860,30 @@
         <v>253</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="2"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3444,8 +3899,15 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA49" s="1"/>
+      <c r="KFC49" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD49" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>138</v>
       </c>
@@ -3453,28 +3915,30 @@
         <v>254</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="2"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3490,8 +3954,15 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA50" s="1"/>
+      <c r="KFC50" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD50" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>140</v>
       </c>
@@ -3499,28 +3970,30 @@
         <v>255</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="2"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3536,8 +4009,15 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA51" s="1"/>
+      <c r="KFC51" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD51" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>143</v>
       </c>
@@ -3545,28 +4025,30 @@
         <v>256</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
+      <c r="K52" s="2"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3582,8 +4064,15 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA52" s="1"/>
+      <c r="KFC52" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD52" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>146</v>
       </c>
@@ -3591,28 +4080,30 @@
         <v>257</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="2"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3628,8 +4119,15 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA53" s="1"/>
+      <c r="KFC53" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD53" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>148</v>
       </c>
@@ -3637,28 +4135,30 @@
         <v>258</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="2"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3674,8 +4174,15 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA54" s="1"/>
+      <c r="KFC54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD54" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>151</v>
       </c>
@@ -3683,28 +4190,30 @@
         <v>259</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="2"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3720,8 +4229,15 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA55" s="1"/>
+      <c r="KFC55" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD55" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -3729,28 +4245,30 @@
         <v>260</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="2"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3766,8 +4284,15 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA56" s="1"/>
+      <c r="KFC56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD56" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
@@ -3775,28 +4300,30 @@
         <v>261</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1">
+        <v>12</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="1">
         <v>15000</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="2"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3812,8 +4339,15 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA57" s="1"/>
+      <c r="KFC57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD57" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
@@ -3821,28 +4355,30 @@
         <v>262</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="1">
+        <v>12</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1">
         <v>15000</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="2"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3858,8 +4394,15 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA58" s="1"/>
+      <c r="KFC58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD58" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
@@ -3867,28 +4410,30 @@
         <v>263</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="1">
+        <v>12</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="1">
         <v>15000</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3904,8 +4449,15 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA59" s="1"/>
+      <c r="KFC59" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD59" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>164</v>
       </c>
@@ -3913,28 +4465,30 @@
         <v>264</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="1"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -3950,8 +4504,15 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA60" s="1"/>
+      <c r="KFC60" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD60" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>167</v>
       </c>
@@ -3959,28 +4520,30 @@
         <v>265</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="1"/>
+      <c r="K61" s="2"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -3996,8 +4559,15 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA61" s="1"/>
+      <c r="KFC61" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD61" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>170</v>
       </c>
@@ -4005,28 +4575,30 @@
         <v>266</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="1"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4042,8 +4614,15 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA62" s="1"/>
+      <c r="KFC62" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD62" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>172</v>
       </c>
@@ -4051,28 +4630,30 @@
         <v>267</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="1"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4088,8 +4669,15 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA63" s="1"/>
+      <c r="KFC63" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD63" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>175</v>
       </c>
@@ -4097,28 +4685,30 @@
         <v>268</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="1"/>
+      <c r="K64" s="2"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4134,8 +4724,15 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA64" s="1"/>
+      <c r="KFC64" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD64" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
@@ -4143,28 +4740,30 @@
         <v>269</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="1"/>
+      <c r="K65" s="2"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -4180,8 +4779,15 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA65" s="1"/>
+      <c r="KFC65" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD65" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
@@ -4189,28 +4795,30 @@
         <v>270</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="2"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -4226,8 +4834,15 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA66" s="1"/>
+      <c r="KFC66" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD66" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>183</v>
       </c>
@@ -4235,28 +4850,30 @@
         <v>271</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="1"/>
+      <c r="K67" s="2"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -4272,8 +4889,15 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA67" s="1"/>
+      <c r="KFC67" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD67" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>185</v>
       </c>
@@ -4281,28 +4905,30 @@
         <v>272</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="1"/>
+      <c r="K68" s="2"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4318,8 +4944,15 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA68" s="1"/>
+      <c r="KFC68" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD68" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>188</v>
       </c>
@@ -4327,28 +4960,30 @@
         <v>273</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="1"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -4364,8 +4999,15 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA69" s="1"/>
+      <c r="KFC69" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD69" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>191</v>
       </c>
@@ -4373,28 +5015,30 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J70" s="2"/>
-      <c r="K70" s="1"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4410,8 +5054,15 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA70" s="1"/>
+      <c r="KFC70" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD70" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -4419,28 +5070,30 @@
         <v>275</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J71" s="2"/>
-      <c r="K71" s="1"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4456,8 +5109,15 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA71" s="1"/>
+      <c r="KFC71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD71" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>196</v>
       </c>
@@ -4465,28 +5125,30 @@
         <v>276</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="1">
+        <v>12</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="1">
         <v>15000</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="1"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -4502,8 +5164,15 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA72" s="1"/>
+      <c r="KFC72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD72" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>199</v>
       </c>
@@ -4511,28 +5180,30 @@
         <v>277</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="1">
-        <v>10000</v>
-      </c>
-      <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="1"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4548,8 +5219,15 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA73" s="1"/>
+      <c r="KFC73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD73" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -4557,28 +5235,30 @@
         <v>278</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="1">
+        <v>12</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="1">
         <v>15000</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J74" s="2"/>
-      <c r="K74" s="1"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -4594,8 +5274,15 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA74" s="1"/>
+      <c r="KFC74" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD74" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
@@ -4603,28 +5290,30 @@
         <v>279</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="1">
+        <v>12</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1">
         <v>15000</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="J75" s="2"/>
-      <c r="K75" s="1"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4640,8 +5329,15 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA75" s="1"/>
+      <c r="KFC75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="KFD75" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4651,8 +5347,8 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4668,6 +5364,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="6870"/>
   </bookViews>
   <sheets>
-    <sheet name="Reporte ventas Satelite" sheetId="1" r:id="rId1"/>
+    <sheet name="Reporte ventas Satelite" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="280">
   <si>
     <t>No. Recibo sin PPC</t>
   </si>
@@ -74,9 +75,6 @@
     <t>1111</t>
   </si>
   <si>
-    <t>10000.0000</t>
-  </si>
-  <si>
     <t>2022-03-16 15:54:00</t>
   </si>
   <si>
@@ -153,9 +151,6 @@
   </si>
   <si>
     <t>897700</t>
-  </si>
-  <si>
-    <t>15000.0000</t>
   </si>
   <si>
     <t>2022-03-16 16:10:00</t>
@@ -914,7 +909,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I74"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1201,7 @@
     <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,19 +1252,19 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1278,27 +1273,27 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1307,27 +1302,27 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1336,27 +1331,27 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1365,27 +1360,27 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1394,27 +1389,27 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -1423,27 +1418,27 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -1452,27 +1447,27 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1481,27 +1476,27 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1510,27 +1505,27 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1539,27 +1534,27 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1568,27 +1563,27 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1597,27 +1592,27 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1626,27 +1621,27 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1655,27 +1650,27 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1684,27 +1679,27 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1713,27 +1708,27 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1742,27 +1737,27 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1771,27 +1766,27 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1800,1187 +1795,1187 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
@@ -2989,27 +2984,27 @@
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
@@ -3018,27 +3013,27 @@
         <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
@@ -3047,27 +3042,27 @@
         <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
@@ -3076,27 +3071,27 @@
         <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
@@ -3105,27 +3100,27 @@
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -3134,27 +3129,27 @@
         <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
@@ -3163,27 +3158,27 @@
         <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
@@ -3192,27 +3187,27 @@
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>11</v>
@@ -3221,27 +3216,27 @@
         <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
@@ -3250,27 +3245,27 @@
         <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3279,27 +3274,27 @@
         <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3308,27 +3303,27 @@
         <v>12</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3337,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>14</v>
@@ -3345,15 +3340,27 @@
       <c r="G74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>43</v>
+      <c r="H74" s="1">
+        <v>150000000</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="283">
   <si>
     <t>No. Recibo sin PPC</t>
   </si>
@@ -873,12 +873,6 @@
   </si>
   <si>
     <t>Existe en Satelite</t>
-  </si>
-  <si>
-    <t>Existe en Salesforce</t>
-  </si>
-  <si>
-    <t>No Existe en Salesforce</t>
   </si>
 </sst>
 </file>
@@ -1206,23 +1200,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KFD76"/>
+  <dimension ref="A1:KFC76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" customWidth="1"/>
-    <col min="7593" max="7596" width="10.90625" style="3"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="7592" max="7595" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,29 +1223,27 @@
         <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1269,7 +1260,9 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="KEZ1" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="KFA1" s="3" t="s">
         <v>281</v>
       </c>
@@ -1279,18 +1272,13 @@
       <c r="KFC1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="KFD1" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1314,15 +1302,14 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="KFB2" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC2" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD2" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1330,30 +1317,28 @@
         <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1369,15 +1354,14 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="KFB3" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC3" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD3" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1385,30 +1369,28 @@
         <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1424,15 +1406,14 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="KFB4" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC4" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD4" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1440,30 +1421,28 @@
         <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1479,15 +1458,14 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="KFB5" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC5" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD5" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1495,30 +1473,28 @@
         <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1534,15 +1510,14 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="KFB6" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC6" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD6" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1550,30 +1525,28 @@
         <v>211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1589,15 +1562,14 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="KFB7" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC7" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD7" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1605,30 +1577,28 @@
         <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1644,15 +1614,14 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="KFB8" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC8" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD8" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1660,30 +1629,28 @@
         <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1699,15 +1666,14 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
+      <c r="KFB9" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD9" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1715,30 +1681,28 @@
         <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1">
         <v>15000</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1754,15 +1718,14 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="KFB10" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC10" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD10" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1770,30 +1733,28 @@
         <v>215</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1">
         <v>15000</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1809,15 +1770,14 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="KFB11" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC11" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD11" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1825,30 +1785,28 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1">
         <v>15000</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1864,15 +1822,14 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="KFB12" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC12" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD12" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1880,30 +1837,28 @@
         <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1919,15 +1874,14 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="KFB13" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC13" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD13" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1935,30 +1889,28 @@
         <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1974,15 +1926,14 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="KFB14" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC14" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD14" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -1990,30 +1941,28 @@
         <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2029,15 +1978,14 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="KFB15" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC15" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD15" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27 7593:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:26 7592:7595" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2045,30 +1993,28 @@
         <v>220</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2084,15 +2030,14 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="KFB16" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC16" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD16" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2100,30 +2045,28 @@
         <v>221</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2139,15 +2082,14 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="KFB17" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC17" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD17" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2155,30 +2097,28 @@
         <v>222</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2194,15 +2134,14 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="KFB18" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC18" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD18" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2210,30 +2149,28 @@
         <v>223</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2249,15 +2186,14 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="KFB19" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC19" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD19" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,30 +2201,28 @@
         <v>224</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="1">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1">
         <v>15000</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2304,15 +2238,14 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="KFB20" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC20" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD20" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -2320,30 +2253,28 @@
         <v>225</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="1">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1">
         <v>15000</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2359,15 +2290,14 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="KFB21" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC21" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD21" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2375,30 +2305,28 @@
         <v>226</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1">
         <v>15000</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2414,15 +2342,14 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
+      <c r="KFB22" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC22" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD22" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -2430,30 +2357,28 @@
         <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2469,15 +2394,14 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="KFB23" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC23" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD23" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2485,30 +2409,28 @@
         <v>228</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2524,15 +2446,14 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
+      <c r="KFB24" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC24" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD24" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -2540,30 +2461,28 @@
         <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2579,15 +2498,14 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
+      <c r="KFB25" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC25" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD25" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2595,30 +2513,28 @@
         <v>230</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2634,15 +2550,14 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="KFB26" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC26" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD26" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -2650,30 +2565,28 @@
         <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2689,15 +2602,14 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="KFB27" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC27" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD27" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -2705,30 +2617,28 @@
         <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2744,15 +2654,14 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
+      <c r="KFB28" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC28" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD28" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -2760,30 +2669,28 @@
         <v>233</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="1">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1">
         <v>15000</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2799,15 +2706,14 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
+      <c r="KFB29" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD29" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -2815,30 +2721,28 @@
         <v>234</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2854,15 +2758,14 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
+      <c r="KFB30" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC30" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD30" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>89</v>
       </c>
@@ -2870,30 +2773,28 @@
         <v>235</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2909,15 +2810,14 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
+      <c r="KFB31" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC31" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD31" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
@@ -2925,30 +2825,28 @@
         <v>236</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2964,15 +2862,14 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="KFB32" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC32" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD32" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -2980,30 +2877,28 @@
         <v>237</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -3019,15 +2914,14 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
+      <c r="KFB33" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC33" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD33" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -3035,30 +2929,28 @@
         <v>238</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -3074,15 +2966,14 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
+      <c r="KFB34" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC34" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD34" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
@@ -3090,30 +2981,28 @@
         <v>239</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -3129,15 +3018,14 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
+      <c r="KFB35" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC35" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD35" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -3145,30 +3033,28 @@
         <v>240</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3184,15 +3070,14 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
+      <c r="KFB36" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC36" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD36" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
@@ -3200,30 +3085,28 @@
         <v>241</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3239,15 +3122,14 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
+      <c r="KFB37" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC37" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD37" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -3255,30 +3137,28 @@
         <v>242</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3294,15 +3174,14 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
+      <c r="KFB38" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC38" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD38" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>111</v>
       </c>
@@ -3310,30 +3189,28 @@
         <v>243</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="1">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1">
         <v>15000</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3349,15 +3226,14 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
+      <c r="KFB39" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC39" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD39" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
@@ -3365,30 +3241,28 @@
         <v>244</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="1">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1">
         <v>15000</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3404,15 +3278,14 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
+      <c r="KFB40" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC40" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD40" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -3420,30 +3293,28 @@
         <v>245</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="1">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1">
         <v>15000</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3459,15 +3330,14 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
+      <c r="KFB41" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC41" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD41" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -3475,30 +3345,28 @@
         <v>246</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3514,15 +3382,14 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
+      <c r="KFB42" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC42" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD42" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -3530,30 +3397,28 @@
         <v>247</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3569,15 +3434,14 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
+      <c r="KFB43" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC43" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD43" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
@@ -3585,30 +3449,28 @@
         <v>248</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3624,15 +3486,14 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
+      <c r="KFB44" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC44" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD44" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>125</v>
       </c>
@@ -3640,30 +3501,28 @@
         <v>249</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3679,15 +3538,14 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
+      <c r="KFB45" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC45" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD45" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
@@ -3695,30 +3553,28 @@
         <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3734,15 +3590,14 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
+      <c r="KFB46" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC46" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD46" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>130</v>
       </c>
@@ -3750,30 +3605,28 @@
         <v>251</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3789,15 +3642,14 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
+      <c r="KFB47" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC47" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD47" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
@@ -3805,30 +3657,28 @@
         <v>252</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3844,15 +3694,14 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
+      <c r="KFB48" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC48" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD48" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>135</v>
       </c>
@@ -3860,30 +3709,28 @@
         <v>253</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3899,15 +3746,14 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
+      <c r="KFB49" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC49" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD49" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>138</v>
       </c>
@@ -3915,30 +3761,28 @@
         <v>254</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3954,15 +3798,14 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
+      <c r="KFB50" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC50" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD50" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>140</v>
       </c>
@@ -3970,30 +3813,28 @@
         <v>255</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -4009,15 +3850,14 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
+      <c r="KFB51" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC51" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD51" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>143</v>
       </c>
@@ -4025,30 +3865,28 @@
         <v>256</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -4064,15 +3902,14 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
+      <c r="KFB52" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC52" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD52" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>146</v>
       </c>
@@ -4080,30 +3917,28 @@
         <v>257</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -4119,15 +3954,14 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
+      <c r="KFB53" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC53" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD53" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>148</v>
       </c>
@@ -4135,30 +3969,28 @@
         <v>258</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -4174,15 +4006,14 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
+      <c r="KFB54" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC54" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD54" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>151</v>
       </c>
@@ -4190,30 +4021,28 @@
         <v>259</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -4229,15 +4058,14 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
+      <c r="KFB55" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC55" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD55" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>153</v>
       </c>
@@ -4245,30 +4073,28 @@
         <v>260</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -4284,15 +4110,14 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
+      <c r="KFB56" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC56" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD56" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
@@ -4300,30 +4125,28 @@
         <v>261</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="1">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1">
         <v>15000</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -4339,15 +4162,14 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
+      <c r="KFB57" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC57" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD57" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
@@ -4355,30 +4177,28 @@
         <v>262</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="1">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1">
         <v>15000</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -4394,15 +4214,14 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
+      <c r="KFB58" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC58" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD58" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
@@ -4410,30 +4229,28 @@
         <v>263</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="1">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1">
         <v>15000</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -4449,15 +4266,14 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
+      <c r="KFB59" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC59" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD59" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>164</v>
       </c>
@@ -4465,30 +4281,28 @@
         <v>264</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -4504,15 +4318,14 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
+      <c r="KFB60" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD60" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>167</v>
       </c>
@@ -4520,30 +4333,28 @@
         <v>265</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -4559,15 +4370,14 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
+      <c r="KFB61" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC61" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD61" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>170</v>
       </c>
@@ -4575,30 +4385,28 @@
         <v>266</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4614,15 +4422,14 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
+      <c r="KFB62" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC62" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD62" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>172</v>
       </c>
@@ -4630,30 +4437,28 @@
         <v>267</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4669,15 +4474,14 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
+      <c r="KFB63" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC63" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD63" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>175</v>
       </c>
@@ -4685,30 +4489,28 @@
         <v>268</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4724,15 +4526,14 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
+      <c r="KFB64" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC64" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD64" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>178</v>
       </c>
@@ -4740,30 +4541,28 @@
         <v>269</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -4779,15 +4578,14 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
+      <c r="KFB65" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC65" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD65" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
@@ -4795,30 +4593,28 @@
         <v>270</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -4834,15 +4630,14 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
+      <c r="KFB66" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC66" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD66" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>183</v>
       </c>
@@ -4850,30 +4645,28 @@
         <v>271</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -4889,15 +4682,14 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
+      <c r="KFB67" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC67" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD67" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>185</v>
       </c>
@@ -4905,30 +4697,28 @@
         <v>272</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4944,15 +4734,14 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
+      <c r="KFB68" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC68" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD68" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>188</v>
       </c>
@@ -4960,30 +4749,28 @@
         <v>273</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -4999,15 +4786,14 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
+      <c r="KFB69" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC69" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD69" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>191</v>
       </c>
@@ -5015,30 +4801,28 @@
         <v>274</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -5054,15 +4838,14 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
+      <c r="KFB70" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC70" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD70" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -5070,30 +4853,28 @@
         <v>275</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -5109,15 +4890,14 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
+      <c r="KFB71" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC71" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD71" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>196</v>
       </c>
@@ -5125,30 +4905,28 @@
         <v>276</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="1">
+        <v>13</v>
+      </c>
+      <c r="H72" s="1">
         <v>15000</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -5164,15 +4942,14 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
+      <c r="KFB72" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC72" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD72" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>199</v>
       </c>
@@ -5180,30 +4957,28 @@
         <v>277</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -5219,15 +4994,14 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
+      <c r="KFB73" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC73" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD73" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -5235,30 +5009,28 @@
         <v>278</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="1">
+        <v>13</v>
+      </c>
+      <c r="H74" s="1">
         <v>15000</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -5274,15 +5046,14 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
+      <c r="KFB74" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC74" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD74" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
@@ -5290,30 +5061,28 @@
         <v>279</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="1">
+        <v>13</v>
+      </c>
+      <c r="H75" s="1">
         <v>15000</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -5329,15 +5098,14 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
+      <c r="KFB75" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="KFC75" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="KFD75" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27 7595:7596" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:26 7594:7595" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5347,8 +5115,8 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -5364,7 +5132,6 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="280">
   <si>
     <t>No. Recibo sin PPC</t>
   </si>
@@ -907,9 +907,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,13 +1193,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>16</v>
@@ -1282,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -1311,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>24</v>
@@ -1340,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
@@ -1369,7 +1372,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>31</v>
@@ -1398,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>35</v>
@@ -1427,7 +1430,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
@@ -1456,7 +1459,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>42</v>
@@ -1485,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>42</v>
@@ -1514,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>49</v>
@@ -1543,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>53</v>
@@ -1572,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>57</v>
@@ -1601,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>61</v>
@@ -1630,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>61</v>
@@ -1659,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>68</v>
@@ -1688,7 +1691,7 @@
         <v>15</v>
       </c>
       <c r="H17" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>68</v>
@@ -1717,7 +1720,7 @@
         <v>15</v>
       </c>
       <c r="H18" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>75</v>
@@ -1746,7 +1749,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>79</v>
@@ -1775,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>79</v>
@@ -1804,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="H21" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>86</v>
@@ -1833,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>92</v>
@@ -1862,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>96</v>
@@ -1891,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="H24" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>96</v>
@@ -1920,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>103</v>
@@ -1949,7 +1952,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>103</v>
@@ -1978,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>110</v>
@@ -2007,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>110</v>
@@ -2036,7 +2039,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>117</v>
@@ -2065,7 +2068,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>117</v>
@@ -2094,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>126</v>
@@ -2123,7 +2126,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>126</v>
@@ -2152,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="H33" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>126</v>
@@ -2181,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>126</v>
@@ -2210,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>139</v>
@@ -2239,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>143</v>
@@ -2268,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>147</v>
@@ -2297,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>147</v>
@@ -2326,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>147</v>
@@ -2355,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>147</v>
@@ -2384,7 +2387,7 @@
         <v>15</v>
       </c>
       <c r="H41" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>160</v>
@@ -2413,7 +2416,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>160</v>
@@ -2442,7 +2445,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>167</v>
@@ -2471,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>171</v>
@@ -2500,7 +2503,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>171</v>
@@ -2529,7 +2532,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>178</v>
@@ -2558,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>178</v>
@@ -2587,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="H48" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>185</v>
@@ -2616,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>185</v>
@@ -2645,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>192</v>
@@ -2674,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="H51" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>196</v>
@@ -2703,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="H52" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>196</v>
@@ -2732,7 +2735,7 @@
         <v>15</v>
       </c>
       <c r="H53" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>203</v>
@@ -2761,7 +2764,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>203</v>
@@ -2790,7 +2793,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>210</v>
@@ -2819,7 +2822,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>214</v>
@@ -2848,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>218</v>
@@ -2877,7 +2880,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>218</v>
@@ -2906,7 +2909,7 @@
         <v>15</v>
       </c>
       <c r="H59" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>225</v>
@@ -2935,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="H60" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>229</v>
@@ -2964,7 +2967,7 @@
         <v>15</v>
       </c>
       <c r="H61" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>229</v>
@@ -2993,7 +2996,7 @@
         <v>15</v>
       </c>
       <c r="H62" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>236</v>
@@ -3022,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>240</v>
@@ -3051,7 +3054,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>240</v>
@@ -3080,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="H65" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>247</v>
@@ -3109,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>247</v>
@@ -3138,7 +3141,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>254</v>
@@ -3167,7 +3170,7 @@
         <v>15</v>
       </c>
       <c r="H68" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>258</v>
@@ -3196,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="H69" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>258</v>
@@ -3225,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>265</v>
@@ -3254,7 +3257,7 @@
         <v>15</v>
       </c>
       <c r="H71" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>269</v>
@@ -3283,7 +3286,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="1">
-        <v>100000000</v>
+        <v>10000</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>269</v>
@@ -3312,7 +3315,7 @@
         <v>15</v>
       </c>
       <c r="H73" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>276</v>
@@ -3341,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="H74" s="1">
-        <v>150000000</v>
+        <v>15000</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>276</v>
@@ -3355,12 +3358,2164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPathProject\SBTT0044-Conciliacion-Terpel\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot.11\Documents\UiPath\Conciliacion EDS\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="281">
   <si>
     <t>No. Recibo sin PPC</t>
   </si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>109500</t>
+  </si>
+  <si>
+    <t>Validación</t>
   </si>
 </sst>
 </file>
@@ -907,9 +910,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,18 +1194,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:KEZ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="7591" width="11.453125" style="1"/>
+    <col min="7592" max="7592" width="11.453125" style="2"/>
+    <col min="7593" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,8 +1233,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="KEZ1" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1578,7 +1585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1607,7 +1614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1665,7 +1672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -1781,7 +1788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>83</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
@@ -1839,7 +1846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -1897,7 +1904,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2042,7 +2049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -2129,7 +2136,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -2158,7 +2165,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2187,7 +2194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
@@ -2245,7 +2252,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2332,7 +2339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>154</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
@@ -2390,7 +2397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -2448,7 +2455,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>168</v>
       </c>
@@ -2477,7 +2484,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>172</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>175</v>
       </c>
@@ -2535,7 +2542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>179</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>182</v>
       </c>
@@ -2593,7 +2600,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>186</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>189</v>
       </c>
@@ -2651,7 +2658,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>193</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>197</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>200</v>
       </c>
@@ -2738,7 +2745,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>204</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>207</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>211</v>
       </c>
@@ -2825,7 +2832,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>215</v>
       </c>
@@ -2854,7 +2861,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>219</v>
       </c>
@@ -2883,7 +2890,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>222</v>
       </c>
@@ -2912,7 +2919,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>226</v>
       </c>
@@ -2941,7 +2948,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>230</v>
       </c>
@@ -2970,7 +2977,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>233</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>237</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>241</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>244</v>
       </c>
@@ -3086,7 +3093,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>248</v>
       </c>
@@ -3115,7 +3122,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>251</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>255</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>259</v>
       </c>
@@ -3202,7 +3209,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>262</v>
       </c>
@@ -3231,7 +3238,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>266</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>270</v>
       </c>
@@ -3289,7 +3296,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>273</v>
       </c>
@@ -3318,7 +3325,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
@@ -3359,7 +3366,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -1194,9 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KEZ74"/>
+  <dimension ref="A1:KEZ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1238,40 +1240,16 @@
       </c>
     </row>
     <row r="2" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1280,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -1292,15 +1270,15 @@
         <v>100000000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1309,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1321,15 +1299,15 @@
         <v>100000000</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1338,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -1355,10 +1333,10 @@
     </row>
     <row r="6" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1367,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -1379,15 +1357,15 @@
         <v>100000000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -1396,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1408,15 +1386,15 @@
         <v>100000000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -1425,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -1442,10 +1420,10 @@
     </row>
     <row r="9" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -1454,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -1463,18 +1441,18 @@
         <v>15</v>
       </c>
       <c r="H9" s="1">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1483,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -1500,10 +1478,10 @@
     </row>
     <row r="11" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1512,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -1524,15 +1502,15 @@
         <v>150000000</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1541,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
@@ -1550,18 +1528,18 @@
         <v>15</v>
       </c>
       <c r="H12" s="1">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1570,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
@@ -1582,15 +1560,15 @@
         <v>100000000</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1599,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -1611,15 +1589,15 @@
         <v>100000000</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1628,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -1645,10 +1623,10 @@
     </row>
     <row r="16" spans="1:9 7592:7592" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1657,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -1669,15 +1647,15 @@
         <v>100000000</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1686,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
@@ -1703,10 +1681,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1715,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
@@ -1727,15 +1705,15 @@
         <v>100000000</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1744,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
@@ -1753,18 +1731,18 @@
         <v>15</v>
       </c>
       <c r="H19" s="1">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1773,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -1790,10 +1768,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1802,7 +1780,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -1814,24 +1792,24 @@
         <v>150000000</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>14</v>
@@ -1840,18 +1818,18 @@
         <v>15</v>
       </c>
       <c r="H22" s="1">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>89</v>
@@ -1860,7 +1838,7 @@
         <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>14</v>
@@ -1872,15 +1850,15 @@
         <v>100000000</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>89</v>
@@ -1889,7 +1867,7 @@
         <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
@@ -1906,10 +1884,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>89</v>
@@ -1918,7 +1896,7 @@
         <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>14</v>
@@ -1930,15 +1908,15 @@
         <v>100000000</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>89</v>
@@ -1947,7 +1925,7 @@
         <v>90</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -1964,10 +1942,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>89</v>
@@ -1976,7 +1954,7 @@
         <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -1988,15 +1966,15 @@
         <v>100000000</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>89</v>
@@ -2005,7 +1983,7 @@
         <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
@@ -2014,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="1">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>110</v>
@@ -2022,10 +2000,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>89</v>
@@ -2034,7 +2012,7 @@
         <v>90</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
@@ -2043,18 +2021,18 @@
         <v>15</v>
       </c>
       <c r="H29" s="1">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>89</v>
@@ -2063,7 +2041,7 @@
         <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -2080,19 +2058,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>14</v>
@@ -2104,15 +2082,15 @@
         <v>100000000</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>123</v>
@@ -2121,7 +2099,7 @@
         <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -2138,10 +2116,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>123</v>
@@ -2150,7 +2128,7 @@
         <v>124</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>14</v>
@@ -2167,10 +2145,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>123</v>
@@ -2179,7 +2157,7 @@
         <v>124</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>14</v>
@@ -2196,10 +2174,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>123</v>
@@ -2208,7 +2186,7 @@
         <v>124</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>14</v>
@@ -2220,15 +2198,15 @@
         <v>100000000</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>123</v>
@@ -2237,7 +2215,7 @@
         <v>124</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>14</v>
@@ -2249,15 +2227,15 @@
         <v>100000000</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>123</v>
@@ -2266,7 +2244,7 @@
         <v>124</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>14</v>
@@ -2278,15 +2256,15 @@
         <v>100000000</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>123</v>
@@ -2295,7 +2273,7 @@
         <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>14</v>
@@ -2304,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="1">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>147</v>
@@ -2312,10 +2290,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>123</v>
@@ -2324,7 +2302,7 @@
         <v>124</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>14</v>
@@ -2341,10 +2319,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>123</v>
@@ -2353,7 +2331,7 @@
         <v>124</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>14</v>
@@ -2370,10 +2348,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>123</v>
@@ -2382,7 +2360,7 @@
         <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
@@ -2391,18 +2369,18 @@
         <v>15</v>
       </c>
       <c r="H41" s="1">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>123</v>
@@ -2411,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>14</v>
@@ -2428,10 +2406,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>123</v>
@@ -2440,7 +2418,7 @@
         <v>124</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>14</v>
@@ -2452,15 +2430,15 @@
         <v>100000000</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>123</v>
@@ -2469,7 +2447,7 @@
         <v>124</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>14</v>
@@ -2481,15 +2459,15 @@
         <v>100000000</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>123</v>
@@ -2498,7 +2476,7 @@
         <v>124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>14</v>
@@ -2515,19 +2493,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
@@ -2539,15 +2517,15 @@
         <v>100000000</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>89</v>
@@ -2556,7 +2534,7 @@
         <v>90</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
@@ -2573,10 +2551,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>89</v>
@@ -2585,7 +2563,7 @@
         <v>90</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>14</v>
@@ -2597,15 +2575,15 @@
         <v>100000000</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>89</v>
@@ -2614,7 +2592,7 @@
         <v>90</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>14</v>
@@ -2631,10 +2609,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>89</v>
@@ -2643,7 +2621,7 @@
         <v>90</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>14</v>
@@ -2655,15 +2633,15 @@
         <v>100000000</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>89</v>
@@ -2672,7 +2650,7 @@
         <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>14</v>
@@ -2684,15 +2662,15 @@
         <v>100000000</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>89</v>
@@ -2701,7 +2679,7 @@
         <v>90</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>14</v>
@@ -2718,10 +2696,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>89</v>
@@ -2730,7 +2708,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>14</v>
@@ -2742,15 +2720,15 @@
         <v>100000000</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>89</v>
@@ -2759,7 +2737,7 @@
         <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>14</v>
@@ -2776,10 +2754,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>89</v>
@@ -2788,7 +2766,7 @@
         <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
@@ -2800,15 +2778,15 @@
         <v>100000000</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>89</v>
@@ -2817,7 +2795,7 @@
         <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>14</v>
@@ -2826,18 +2804,18 @@
         <v>15</v>
       </c>
       <c r="H56" s="1">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>89</v>
@@ -2846,7 +2824,7 @@
         <v>90</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>14</v>
@@ -2858,15 +2836,15 @@
         <v>150000000</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>89</v>
@@ -2875,7 +2853,7 @@
         <v>90</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
@@ -2892,10 +2870,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>89</v>
@@ -2904,7 +2882,7 @@
         <v>90</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>14</v>
@@ -2913,18 +2891,18 @@
         <v>15</v>
       </c>
       <c r="H59" s="1">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>89</v>
@@ -2933,7 +2911,7 @@
         <v>90</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>14</v>
@@ -2945,15 +2923,15 @@
         <v>100000000</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>89</v>
@@ -2962,7 +2940,7 @@
         <v>90</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>14</v>
@@ -2979,19 +2957,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>14</v>
@@ -3003,15 +2981,15 @@
         <v>100000000</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
@@ -3020,7 +2998,7 @@
         <v>12</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>14</v>
@@ -3032,15 +3010,15 @@
         <v>100000000</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
@@ -3049,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>14</v>
@@ -3066,10 +3044,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
@@ -3078,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>14</v>
@@ -3090,15 +3068,15 @@
         <v>100000000</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
@@ -3107,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>14</v>
@@ -3124,10 +3102,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
@@ -3136,7 +3114,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>14</v>
@@ -3148,15 +3126,15 @@
         <v>100000000</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
@@ -3165,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>14</v>
@@ -3177,15 +3155,15 @@
         <v>100000000</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
@@ -3194,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>14</v>
@@ -3211,10 +3189,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>11</v>
@@ -3223,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>14</v>
@@ -3235,15 +3213,15 @@
         <v>100000000</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
@@ -3252,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>14</v>
@@ -3261,18 +3239,18 @@
         <v>15</v>
       </c>
       <c r="H71" s="1">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3281,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>14</v>
@@ -3290,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="1">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>269</v>
@@ -3298,10 +3276,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3310,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>14</v>
@@ -3319,18 +3297,18 @@
         <v>15</v>
       </c>
       <c r="H73" s="1">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3339,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>14</v>
@@ -3351,6 +3329,35 @@
         <v>150000000</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>276</v>
       </c>
     </row>

--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:KFA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1423,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11 7593:7593" x14ac:dyDescent="0.25">

--- a/Data/Temp/Reporte fidelizaciones Satelite.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Satelite.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>No. Recibo sin PPC</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>1111</t>
-  </si>
-  <si>
-    <t>10000.0000</t>
   </si>
   <si>
     <t>2022-04-11 09:26:00</t>
@@ -141,7 +138,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -487,22 +484,22 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -511,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -519,14 +516,14 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
+      <c r="H3" s="1">
+        <v>10000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
